--- a/biology/Histoire de la zoologie et de la botanique/Johannes_Max_Proskauer/Johannes_Max_Proskauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johannes_Max_Proskauer/Johannes_Max_Proskauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Max Proskauer est un botaniste allemand, né le 5 décembre 1923 à Göttingen et mort le 20 décembre 1970.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Walter Proskauer et de Margarete née Jacob. Il obtient Bachelor of Sciences à l’université de Londres en 1943 puis son Ph. D. en 1947.
 De 1945 à 1948, il est professeur-assistant à l’Essex Technology College de Dagenham. Puis travaille à l’Université de Berkeley de Californie à partir de 1948. Il est marie avec Josephine Pia Schizzano le 25 janvier 1951 dont il aura deux enfants.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(1948) Studies on the morphology of Anthoceros. I. Annals of Bot., Ser. 2, 12 : 237-265.
 (1948) Studies on the morphology of Anthoceros. II. Annals of Bot., Ser. 2, 12 : 427-439.
